--- a/Fractions_AravaEtAll_Stims-Procs.xlsx
+++ b/Fractions_AravaEtAll_Stims-Procs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="695" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="748" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Size Pract" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,8 @@
     <sheet name="All_StimPairsX1.1" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="All_StimPairsX2" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="SizeTaskSound" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="FracTascSound" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="FracTaskSound" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="SizeTrainSound" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
@@ -30,21 +31,24 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10659" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="442">
   <si>
     <t>LeftStim</t>
   </si>
@@ -15934,7 +15938,7 @@
   </sheetPr>
   <dimension ref="A1:AI109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -23905,8 +23909,8 @@
   </sheetPr>
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -30670,6 +30674,1273 @@
       </c>
       <c r="T109" s="0" t="n">
         <v>4508</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>3772</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>2828</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1508</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>942</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2060</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2472</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1508</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>942</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>3772</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2920</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1094</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2434</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4892</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1224</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>3668</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1222</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>734</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>2434</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>2920</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>1222</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>4892</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1224</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>3368</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2106</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1262</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2808</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>2106</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>6012</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1504</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>4508</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>2404</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1502</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>2808</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>2106</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>3368</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>2106</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1262</v>
       </c>
     </row>
   </sheetData>

--- a/Fractions_AravaEtAll_Stims-Procs.xlsx
+++ b/Fractions_AravaEtAll_Stims-Procs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="748" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="748" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Size Pract" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="SizeTaskSound" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="FracTaskSound" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="SizeTrainSound" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="FracTrainSound" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
@@ -32,23 +33,26 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Frac Pract'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Frac Task'!$AF$2:$AG$110</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Area2Duration!$A$1:$L$109</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11359" uniqueCount="447">
   <si>
     <t>LeftStim</t>
   </si>
@@ -728,10 +732,16 @@
     <t>HTBdur</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>0A_5-8-part.wav</t>
   </si>
   <si>
     <t>0B_6-8-part.wav</t>
+  </si>
+  <si>
+    <t>SizeTask</t>
   </si>
   <si>
     <t>1A_6-8-part.wav</t>
@@ -1375,6 +1385,15 @@
   <si>
     <t>107B_2-8-part.wav</t>
   </si>
+  <si>
+    <t>FracTask</t>
+  </si>
+  <si>
+    <t>SizeTrain</t>
+  </si>
+  <si>
+    <t>FracTrain</t>
+  </si>
 </sst>
 </file>
 
@@ -15938,8 +15957,8 @@
   </sheetPr>
   <dimension ref="A1:AI109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16008,13 +16027,16 @@
       <c r="T1" s="0" t="s">
         <v>209</v>
       </c>
+      <c r="U1" s="0" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5</v>
@@ -16069,6 +16091,9 @@
       </c>
       <c r="T2" s="0" t="n">
         <v>422</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -16084,10 +16109,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6</v>
@@ -16142,6 +16167,9 @@
       </c>
       <c r="T3" s="0" t="n">
         <v>758</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -16157,10 +16185,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -16215,6 +16243,9 @@
       </c>
       <c r="T4" s="0" t="n">
         <v>618</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -16230,10 +16261,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -16288,6 +16319,9 @@
       </c>
       <c r="T5" s="0" t="n">
         <v>1030</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -16303,10 +16337,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -16361,6 +16395,9 @@
       </c>
       <c r="T6" s="0" t="n">
         <v>928</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -16376,10 +16413,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -16434,6 +16471,9 @@
       </c>
       <c r="T7" s="0" t="n">
         <v>1670</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -16448,10 +16488,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
@@ -16506,6 +16546,9 @@
       </c>
       <c r="T8" s="0" t="n">
         <v>194</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -16521,10 +16564,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -16579,6 +16622,9 @@
       </c>
       <c r="T9" s="0" t="n">
         <v>812</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -16594,10 +16640,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -16652,6 +16698,9 @@
       </c>
       <c r="T10" s="0" t="n">
         <v>522</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -16667,10 +16716,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>5</v>
@@ -16725,6 +16774,9 @@
       </c>
       <c r="T11" s="0" t="n">
         <v>1450</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -16740,10 +16792,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -16798,6 +16850,9 @@
       </c>
       <c r="T12" s="0" t="n">
         <v>618</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -16813,10 +16868,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -16871,6 +16926,9 @@
       </c>
       <c r="T13" s="0" t="n">
         <v>1856</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -16886,10 +16944,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -16944,6 +17002,9 @@
       </c>
       <c r="T14" s="0" t="n">
         <v>168</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -16959,10 +17020,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7</v>
@@ -17017,6 +17078,9 @@
       </c>
       <c r="T15" s="0" t="n">
         <v>1180</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -17032,10 +17096,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -17090,6 +17154,9 @@
       </c>
       <c r="T16" s="0" t="n">
         <v>310</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -17105,10 +17172,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>6</v>
@@ -17163,6 +17230,9 @@
       </c>
       <c r="T17" s="0" t="n">
         <v>1546</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -17178,10 +17248,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -17236,6 +17306,9 @@
       </c>
       <c r="T18" s="0" t="n">
         <v>398</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -17251,10 +17324,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -17309,6 +17382,9 @@
       </c>
       <c r="T19" s="0" t="n">
         <v>1988</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -17324,10 +17400,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>5</v>
@@ -17382,6 +17458,9 @@
       </c>
       <c r="T20" s="0" t="n">
         <v>514</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -17397,10 +17476,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>6</v>
@@ -17455,6 +17534,9 @@
       </c>
       <c r="T21" s="0" t="n">
         <v>926</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -17470,10 +17552,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -17528,6 +17610,9 @@
       </c>
       <c r="T22" s="0" t="n">
         <v>786</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -17543,10 +17628,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
@@ -17601,6 +17686,9 @@
       </c>
       <c r="T23" s="0" t="n">
         <v>1310</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -17616,10 +17704,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -17674,6 +17762,9 @@
       </c>
       <c r="T24" s="0" t="n">
         <v>1394</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -17688,10 +17779,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -17746,6 +17837,9 @@
       </c>
       <c r="T25" s="0" t="n">
         <v>2510</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -17761,10 +17855,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>5</v>
@@ -17819,6 +17913,9 @@
       </c>
       <c r="T26" s="0" t="n">
         <v>234</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -17834,10 +17931,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>7</v>
@@ -17892,6 +17989,9 @@
       </c>
       <c r="T27" s="0" t="n">
         <v>980</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -17907,10 +18007,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3</v>
@@ -17965,6 +18065,9 @@
       </c>
       <c r="T28" s="0" t="n">
         <v>690</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -17980,10 +18083,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>5</v>
@@ -18038,6 +18141,9 @@
       </c>
       <c r="T29" s="0" t="n">
         <v>1916</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -18053,10 +18159,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -18111,6 +18217,9 @@
       </c>
       <c r="T30" s="0" t="n">
         <v>898</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -18126,10 +18235,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -18184,6 +18293,9 @@
       </c>
       <c r="T31" s="0" t="n">
         <v>2696</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -18199,10 +18311,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -18257,6 +18369,9 @@
       </c>
       <c r="T32" s="0" t="n">
         <v>208</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -18272,10 +18387,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>7</v>
@@ -18330,6 +18445,9 @@
       </c>
       <c r="T33" s="0" t="n">
         <v>1460</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -18345,10 +18463,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>3</v>
@@ -18403,6 +18521,9 @@
       </c>
       <c r="T34" s="0" t="n">
         <v>402</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -18418,10 +18539,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>6</v>
@@ -18476,6 +18597,9 @@
       </c>
       <c r="T35" s="0" t="n">
         <v>2014</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -18491,10 +18615,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -18549,6 +18673,9 @@
       </c>
       <c r="T36" s="0" t="n">
         <v>566</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -18564,10 +18691,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>5</v>
@@ -18622,6 +18749,9 @@
       </c>
       <c r="T37" s="0" t="n">
         <v>2828</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -18637,10 +18767,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -18695,6 +18825,9 @@
       </c>
       <c r="T38" s="0" t="n">
         <v>422</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -18710,10 +18843,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>6</v>
@@ -18768,6 +18901,9 @@
       </c>
       <c r="T39" s="0" t="n">
         <v>758</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -18783,10 +18919,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>4</v>
@@ -18841,6 +18977,9 @@
       </c>
       <c r="T40" s="0" t="n">
         <v>618</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -18856,10 +18995,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -18914,6 +19053,9 @@
       </c>
       <c r="T41" s="0" t="n">
         <v>1030</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -18929,10 +19071,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2</v>
@@ -18987,6 +19129,9 @@
       </c>
       <c r="T42" s="0" t="n">
         <v>928</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -19002,10 +19147,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3</v>
@@ -19060,6 +19205,9 @@
       </c>
       <c r="T43" s="0" t="n">
         <v>1670</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -19075,10 +19223,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>5</v>
@@ -19133,6 +19281,9 @@
       </c>
       <c r="T44" s="0" t="n">
         <v>194</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -19148,10 +19299,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>7</v>
@@ -19206,6 +19357,9 @@
       </c>
       <c r="T45" s="0" t="n">
         <v>812</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -19221,10 +19375,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3</v>
@@ -19279,6 +19433,9 @@
       </c>
       <c r="T46" s="0" t="n">
         <v>522</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -19294,10 +19451,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>5</v>
@@ -19352,6 +19509,9 @@
       </c>
       <c r="T47" s="0" t="n">
         <v>1450</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -19367,10 +19527,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -19425,6 +19585,9 @@
       </c>
       <c r="T48" s="0" t="n">
         <v>618</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
@@ -19440,10 +19603,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>4</v>
@@ -19498,6 +19661,9 @@
       </c>
       <c r="T49" s="0" t="n">
         <v>1856</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
@@ -19513,10 +19679,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>4</v>
@@ -19571,6 +19737,9 @@
       </c>
       <c r="T50" s="0" t="n">
         <v>168</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
@@ -19586,10 +19755,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>7</v>
@@ -19644,6 +19813,9 @@
       </c>
       <c r="T51" s="0" t="n">
         <v>1180</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -19659,10 +19831,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3</v>
@@ -19717,6 +19889,9 @@
       </c>
       <c r="T52" s="0" t="n">
         <v>310</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
@@ -19732,10 +19907,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>6</v>
@@ -19790,6 +19965,9 @@
       </c>
       <c r="T53" s="0" t="n">
         <v>1546</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -19805,10 +19983,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2</v>
@@ -19863,6 +20041,9 @@
       </c>
       <c r="T54" s="0" t="n">
         <v>398</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
@@ -19878,10 +20059,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -19936,6 +20117,9 @@
       </c>
       <c r="T55" s="0" t="n">
         <v>1988</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
@@ -19951,10 +20135,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -20009,6 +20193,9 @@
       </c>
       <c r="T56" s="0" t="n">
         <v>608</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
@@ -20024,10 +20211,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>6</v>
@@ -20082,6 +20269,9 @@
       </c>
       <c r="T57" s="0" t="n">
         <v>1094</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
@@ -20097,10 +20287,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>4</v>
@@ -20155,6 +20345,9 @@
       </c>
       <c r="T58" s="0" t="n">
         <v>954</v>
+      </c>
+      <c r="U58" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -20170,10 +20363,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -20228,6 +20421,9 @@
       </c>
       <c r="T59" s="0" t="n">
         <v>1590</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -20243,10 +20439,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2</v>
@@ -20301,6 +20497,9 @@
       </c>
       <c r="T60" s="0" t="n">
         <v>1862</v>
+      </c>
+      <c r="U60" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -20316,10 +20515,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3</v>
@@ -20374,6 +20573,9 @@
       </c>
       <c r="T61" s="0" t="n">
         <v>3350</v>
+      </c>
+      <c r="U61" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
@@ -20389,10 +20591,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>5</v>
@@ -20447,6 +20649,9 @@
       </c>
       <c r="T62" s="0" t="n">
         <v>274</v>
+      </c>
+      <c r="U62" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
@@ -20462,10 +20667,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>7</v>
@@ -20520,6 +20725,9 @@
       </c>
       <c r="T63" s="0" t="n">
         <v>1148</v>
+      </c>
+      <c r="U63" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
@@ -20535,10 +20743,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>3</v>
@@ -20593,6 +20801,9 @@
       </c>
       <c r="T64" s="0" t="n">
         <v>858</v>
+      </c>
+      <c r="U64" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
@@ -20608,10 +20819,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>5</v>
@@ -20666,6 +20877,9 @@
       </c>
       <c r="T65" s="0" t="n">
         <v>2384</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
@@ -20681,10 +20895,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2</v>
@@ -20739,6 +20953,9 @@
       </c>
       <c r="T66" s="0" t="n">
         <v>1178</v>
+      </c>
+      <c r="U66" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
@@ -20754,10 +20971,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>4</v>
@@ -20812,6 +21029,9 @@
       </c>
       <c r="T67" s="0" t="n">
         <v>3536</v>
+      </c>
+      <c r="U67" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -20827,10 +21047,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>4</v>
@@ -20885,6 +21105,9 @@
       </c>
       <c r="T68" s="0" t="n">
         <v>248</v>
+      </c>
+      <c r="U68" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
@@ -20900,10 +21123,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>7</v>
@@ -20958,6 +21181,9 @@
       </c>
       <c r="T69" s="0" t="n">
         <v>1740</v>
+      </c>
+      <c r="U69" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
@@ -20973,10 +21199,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>3</v>
@@ -21031,6 +21257,9 @@
       </c>
       <c r="T70" s="0" t="n">
         <v>496</v>
+      </c>
+      <c r="U70" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
@@ -21046,10 +21275,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>6</v>
@@ -21104,6 +21333,9 @@
       </c>
       <c r="T71" s="0" t="n">
         <v>2480</v>
+      </c>
+      <c r="U71" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
@@ -21119,10 +21351,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -21177,6 +21409,9 @@
       </c>
       <c r="T72" s="0" t="n">
         <v>734</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
@@ -21192,10 +21427,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>5</v>
@@ -21250,6 +21485,9 @@
       </c>
       <c r="T73" s="0" t="n">
         <v>3668</v>
+      </c>
+      <c r="U73" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -21265,10 +21503,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>5</v>
@@ -21323,6 +21561,9 @@
       </c>
       <c r="T74" s="0" t="n">
         <v>422</v>
+      </c>
+      <c r="U74" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
@@ -21338,10 +21579,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>6</v>
@@ -21396,6 +21637,9 @@
       </c>
       <c r="T75" s="0" t="n">
         <v>758</v>
+      </c>
+      <c r="U75" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
@@ -21411,10 +21655,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>4</v>
@@ -21469,6 +21713,9 @@
       </c>
       <c r="T76" s="0" t="n">
         <v>618</v>
+      </c>
+      <c r="U76" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
@@ -21484,10 +21731,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>5</v>
@@ -21542,6 +21789,9 @@
       </c>
       <c r="T77" s="0" t="n">
         <v>1030</v>
+      </c>
+      <c r="U77" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
@@ -21557,10 +21807,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2</v>
@@ -21615,6 +21865,9 @@
       </c>
       <c r="T78" s="0" t="n">
         <v>928</v>
+      </c>
+      <c r="U78" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
@@ -21630,10 +21883,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>3</v>
@@ -21688,6 +21941,9 @@
       </c>
       <c r="T79" s="0" t="n">
         <v>1670</v>
+      </c>
+      <c r="U79" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
@@ -21703,10 +21959,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>5</v>
@@ -21761,6 +22017,9 @@
       </c>
       <c r="T80" s="0" t="n">
         <v>194</v>
+      </c>
+      <c r="U80" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
@@ -21776,10 +22035,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>7</v>
@@ -21834,6 +22093,9 @@
       </c>
       <c r="T81" s="0" t="n">
         <v>812</v>
+      </c>
+      <c r="U81" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
@@ -21849,10 +22111,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>3</v>
@@ -21907,6 +22169,9 @@
       </c>
       <c r="T82" s="0" t="n">
         <v>522</v>
+      </c>
+      <c r="U82" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
@@ -21922,10 +22187,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>5</v>
@@ -21980,6 +22245,9 @@
       </c>
       <c r="T83" s="0" t="n">
         <v>1450</v>
+      </c>
+      <c r="U83" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
@@ -21995,10 +22263,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2</v>
@@ -22053,6 +22321,9 @@
       </c>
       <c r="T84" s="0" t="n">
         <v>618</v>
+      </c>
+      <c r="U84" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
@@ -22068,10 +22339,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -22126,6 +22397,9 @@
       </c>
       <c r="T85" s="0" t="n">
         <v>1856</v>
+      </c>
+      <c r="U85" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
@@ -22141,10 +22415,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>4</v>
@@ -22199,6 +22473,9 @@
       </c>
       <c r="T86" s="0" t="n">
         <v>168</v>
+      </c>
+      <c r="U86" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
@@ -22214,10 +22491,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>7</v>
@@ -22272,6 +22549,9 @@
       </c>
       <c r="T87" s="0" t="n">
         <v>1180</v>
+      </c>
+      <c r="U87" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
@@ -22287,10 +22567,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>3</v>
@@ -22345,6 +22625,9 @@
       </c>
       <c r="T88" s="0" t="n">
         <v>310</v>
+      </c>
+      <c r="U88" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
@@ -22360,10 +22643,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>6</v>
@@ -22418,6 +22701,9 @@
       </c>
       <c r="T89" s="0" t="n">
         <v>1546</v>
+      </c>
+      <c r="U89" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
@@ -22433,10 +22719,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2</v>
@@ -22491,6 +22777,9 @@
       </c>
       <c r="T90" s="0" t="n">
         <v>398</v>
+      </c>
+      <c r="U90" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
@@ -22506,10 +22795,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>5</v>
@@ -22564,6 +22853,9 @@
       </c>
       <c r="T91" s="0" t="n">
         <v>1988</v>
+      </c>
+      <c r="U91" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
@@ -22579,10 +22871,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>5</v>
@@ -22637,6 +22929,9 @@
       </c>
       <c r="T92" s="0" t="n">
         <v>702</v>
+      </c>
+      <c r="U92" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
@@ -22652,10 +22947,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>6</v>
@@ -22710,6 +23005,9 @@
       </c>
       <c r="T93" s="0" t="n">
         <v>1262</v>
+      </c>
+      <c r="U93" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
@@ -22725,10 +23023,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>4</v>
@@ -22783,6 +23081,9 @@
       </c>
       <c r="T94" s="0" t="n">
         <v>1122</v>
+      </c>
+      <c r="U94" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -22798,10 +23099,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>5</v>
@@ -22856,6 +23157,9 @@
       </c>
       <c r="T95" s="0" t="n">
         <v>1870</v>
+      </c>
+      <c r="U95" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
@@ -22871,10 +23175,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -22929,6 +23233,9 @@
       </c>
       <c r="T96" s="0" t="n">
         <v>2328</v>
+      </c>
+      <c r="U96" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
@@ -22944,10 +23251,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -23002,6 +23309,9 @@
       </c>
       <c r="T97" s="0" t="n">
         <v>4190</v>
+      </c>
+      <c r="U97" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
@@ -23017,10 +23327,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>5</v>
@@ -23075,6 +23385,9 @@
       </c>
       <c r="T98" s="0" t="n">
         <v>314</v>
+      </c>
+      <c r="U98" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
@@ -23090,10 +23403,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>7</v>
@@ -23148,6 +23461,9 @@
       </c>
       <c r="T99" s="0" t="n">
         <v>1316</v>
+      </c>
+      <c r="U99" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
@@ -23163,10 +23479,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>3</v>
@@ -23221,6 +23537,9 @@
       </c>
       <c r="T100" s="0" t="n">
         <v>1026</v>
+      </c>
+      <c r="U100" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
@@ -23236,10 +23555,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>5</v>
@@ -23294,6 +23613,9 @@
       </c>
       <c r="T101" s="0" t="n">
         <v>2850</v>
+      </c>
+      <c r="U101" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
@@ -23309,10 +23631,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2</v>
@@ -23367,6 +23689,9 @@
       </c>
       <c r="T102" s="0" t="n">
         <v>1458</v>
+      </c>
+      <c r="U102" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
@@ -23382,10 +23707,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -23440,6 +23765,9 @@
       </c>
       <c r="T103" s="0" t="n">
         <v>4376</v>
+      </c>
+      <c r="U103" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -23455,10 +23783,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -23513,6 +23841,9 @@
       </c>
       <c r="T104" s="0" t="n">
         <v>288</v>
+      </c>
+      <c r="U104" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
@@ -23528,10 +23859,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>7</v>
@@ -23586,6 +23917,9 @@
       </c>
       <c r="T105" s="0" t="n">
         <v>2020</v>
+      </c>
+      <c r="U105" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
@@ -23601,10 +23935,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>3</v>
@@ -23659,6 +23993,9 @@
       </c>
       <c r="T106" s="0" t="n">
         <v>590</v>
+      </c>
+      <c r="U106" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
@@ -23674,10 +24011,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>6</v>
@@ -23732,6 +24069,9 @@
       </c>
       <c r="T107" s="0" t="n">
         <v>2946</v>
+      </c>
+      <c r="U107" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
@@ -23747,10 +24087,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2</v>
@@ -23805,6 +24145,9 @@
       </c>
       <c r="T108" s="0" t="n">
         <v>902</v>
+      </c>
+      <c r="U108" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
@@ -23820,10 +24163,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -23878,6 +24221,9 @@
       </c>
       <c r="T109" s="0" t="n">
         <v>4508</v>
+      </c>
+      <c r="U109" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
@@ -23907,10 +24253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23979,13 +24325,16 @@
       <c r="T1" s="0" t="s">
         <v>209</v>
       </c>
+      <c r="U1" s="0" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5</v>
@@ -24041,13 +24390,16 @@
       <c r="T2" s="0" t="n">
         <v>422</v>
       </c>
+      <c r="U2" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6</v>
@@ -24103,13 +24455,16 @@
       <c r="T3" s="0" t="n">
         <v>758</v>
       </c>
+      <c r="U3" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -24165,13 +24520,16 @@
       <c r="T4" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="U4" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -24227,13 +24585,16 @@
       <c r="T5" s="0" t="n">
         <v>1030</v>
       </c>
+      <c r="U5" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -24289,13 +24650,16 @@
       <c r="T6" s="0" t="n">
         <v>928</v>
       </c>
+      <c r="U6" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -24351,13 +24715,16 @@
       <c r="T7" s="0" t="n">
         <v>1670</v>
       </c>
+      <c r="U7" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
@@ -24413,13 +24780,16 @@
       <c r="T8" s="0" t="n">
         <v>194</v>
       </c>
+      <c r="U8" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -24475,13 +24845,16 @@
       <c r="T9" s="0" t="n">
         <v>812</v>
       </c>
+      <c r="U9" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -24537,13 +24910,16 @@
       <c r="T10" s="0" t="n">
         <v>522</v>
       </c>
+      <c r="U10" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>5</v>
@@ -24599,13 +24975,16 @@
       <c r="T11" s="0" t="n">
         <v>1450</v>
       </c>
+      <c r="U11" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -24661,13 +25040,16 @@
       <c r="T12" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="U12" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -24723,13 +25105,16 @@
       <c r="T13" s="0" t="n">
         <v>1856</v>
       </c>
+      <c r="U13" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -24785,13 +25170,16 @@
       <c r="T14" s="0" t="n">
         <v>168</v>
       </c>
+      <c r="U14" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7</v>
@@ -24847,13 +25235,16 @@
       <c r="T15" s="0" t="n">
         <v>1180</v>
       </c>
+      <c r="U15" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -24909,13 +25300,16 @@
       <c r="T16" s="0" t="n">
         <v>310</v>
       </c>
+      <c r="U16" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>6</v>
@@ -24971,13 +25365,16 @@
       <c r="T17" s="0" t="n">
         <v>1546</v>
       </c>
+      <c r="U17" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -25033,13 +25430,16 @@
       <c r="T18" s="0" t="n">
         <v>398</v>
       </c>
+      <c r="U18" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -25095,13 +25495,16 @@
       <c r="T19" s="0" t="n">
         <v>1988</v>
       </c>
+      <c r="U19" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>5</v>
@@ -25157,13 +25560,16 @@
       <c r="T20" s="0" t="n">
         <v>514</v>
       </c>
+      <c r="U20" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>6</v>
@@ -25219,13 +25625,16 @@
       <c r="T21" s="0" t="n">
         <v>926</v>
       </c>
+      <c r="U21" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -25281,13 +25690,16 @@
       <c r="T22" s="0" t="n">
         <v>786</v>
       </c>
+      <c r="U22" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
@@ -25343,13 +25755,16 @@
       <c r="T23" s="0" t="n">
         <v>1310</v>
       </c>
+      <c r="U23" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -25405,13 +25820,16 @@
       <c r="T24" s="0" t="n">
         <v>1394</v>
       </c>
+      <c r="U24" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -25467,13 +25885,16 @@
       <c r="T25" s="0" t="n">
         <v>2510</v>
       </c>
+      <c r="U25" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>5</v>
@@ -25529,13 +25950,16 @@
       <c r="T26" s="0" t="n">
         <v>234</v>
       </c>
+      <c r="U26" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>7</v>
@@ -25591,13 +26015,16 @@
       <c r="T27" s="0" t="n">
         <v>980</v>
       </c>
+      <c r="U27" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3</v>
@@ -25653,13 +26080,16 @@
       <c r="T28" s="0" t="n">
         <v>690</v>
       </c>
+      <c r="U28" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>5</v>
@@ -25715,13 +26145,16 @@
       <c r="T29" s="0" t="n">
         <v>1916</v>
       </c>
+      <c r="U29" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -25777,13 +26210,16 @@
       <c r="T30" s="0" t="n">
         <v>898</v>
       </c>
+      <c r="U30" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -25839,13 +26275,16 @@
       <c r="T31" s="0" t="n">
         <v>2696</v>
       </c>
+      <c r="U31" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -25901,13 +26340,16 @@
       <c r="T32" s="0" t="n">
         <v>208</v>
       </c>
+      <c r="U32" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>7</v>
@@ -25963,13 +26405,16 @@
       <c r="T33" s="0" t="n">
         <v>1460</v>
       </c>
+      <c r="U33" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>3</v>
@@ -26025,13 +26470,16 @@
       <c r="T34" s="0" t="n">
         <v>402</v>
       </c>
+      <c r="U34" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>6</v>
@@ -26087,13 +26535,16 @@
       <c r="T35" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="U35" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -26149,13 +26600,16 @@
       <c r="T36" s="0" t="n">
         <v>566</v>
       </c>
+      <c r="U36" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>5</v>
@@ -26211,13 +26665,16 @@
       <c r="T37" s="0" t="n">
         <v>2828</v>
       </c>
+      <c r="U37" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -26273,13 +26730,16 @@
       <c r="T38" s="0" t="n">
         <v>422</v>
       </c>
+      <c r="U38" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>6</v>
@@ -26335,13 +26795,16 @@
       <c r="T39" s="0" t="n">
         <v>758</v>
       </c>
+      <c r="U39" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>4</v>
@@ -26397,13 +26860,16 @@
       <c r="T40" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="U40" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -26459,13 +26925,16 @@
       <c r="T41" s="0" t="n">
         <v>1030</v>
       </c>
+      <c r="U41" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2</v>
@@ -26521,13 +26990,16 @@
       <c r="T42" s="0" t="n">
         <v>928</v>
       </c>
+      <c r="U42" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3</v>
@@ -26583,13 +27055,16 @@
       <c r="T43" s="0" t="n">
         <v>1670</v>
       </c>
+      <c r="U43" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>5</v>
@@ -26645,13 +27120,16 @@
       <c r="T44" s="0" t="n">
         <v>194</v>
       </c>
+      <c r="U44" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>7</v>
@@ -26707,13 +27185,16 @@
       <c r="T45" s="0" t="n">
         <v>812</v>
       </c>
+      <c r="U45" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3</v>
@@ -26769,13 +27250,16 @@
       <c r="T46" s="0" t="n">
         <v>522</v>
       </c>
+      <c r="U46" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>5</v>
@@ -26831,13 +27315,16 @@
       <c r="T47" s="0" t="n">
         <v>1450</v>
       </c>
+      <c r="U47" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -26893,13 +27380,16 @@
       <c r="T48" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="U48" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>4</v>
@@ -26955,13 +27445,16 @@
       <c r="T49" s="0" t="n">
         <v>1856</v>
       </c>
+      <c r="U49" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>4</v>
@@ -27017,13 +27510,16 @@
       <c r="T50" s="0" t="n">
         <v>168</v>
       </c>
+      <c r="U50" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>7</v>
@@ -27079,13 +27575,16 @@
       <c r="T51" s="0" t="n">
         <v>1180</v>
       </c>
+      <c r="U51" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3</v>
@@ -27141,13 +27640,16 @@
       <c r="T52" s="0" t="n">
         <v>310</v>
       </c>
+      <c r="U52" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>6</v>
@@ -27203,13 +27705,16 @@
       <c r="T53" s="0" t="n">
         <v>1546</v>
       </c>
+      <c r="U53" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2</v>
@@ -27265,13 +27770,16 @@
       <c r="T54" s="0" t="n">
         <v>398</v>
       </c>
+      <c r="U54" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -27327,13 +27835,16 @@
       <c r="T55" s="0" t="n">
         <v>1988</v>
       </c>
+      <c r="U55" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -27389,13 +27900,16 @@
       <c r="T56" s="0" t="n">
         <v>608</v>
       </c>
+      <c r="U56" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>6</v>
@@ -27451,13 +27965,16 @@
       <c r="T57" s="0" t="n">
         <v>1094</v>
       </c>
+      <c r="U57" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>4</v>
@@ -27513,13 +28030,16 @@
       <c r="T58" s="0" t="n">
         <v>954</v>
       </c>
+      <c r="U58" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -27575,13 +28095,16 @@
       <c r="T59" s="0" t="n">
         <v>1590</v>
       </c>
+      <c r="U59" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2</v>
@@ -27637,13 +28160,16 @@
       <c r="T60" s="0" t="n">
         <v>1862</v>
       </c>
+      <c r="U60" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3</v>
@@ -27699,13 +28225,16 @@
       <c r="T61" s="0" t="n">
         <v>3350</v>
       </c>
+      <c r="U61" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>5</v>
@@ -27761,13 +28290,16 @@
       <c r="T62" s="0" t="n">
         <v>274</v>
       </c>
+      <c r="U62" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>7</v>
@@ -27823,13 +28355,16 @@
       <c r="T63" s="0" t="n">
         <v>1148</v>
       </c>
+      <c r="U63" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>3</v>
@@ -27885,13 +28420,16 @@
       <c r="T64" s="0" t="n">
         <v>858</v>
       </c>
+      <c r="U64" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>5</v>
@@ -27947,13 +28485,16 @@
       <c r="T65" s="0" t="n">
         <v>2384</v>
       </c>
+      <c r="U65" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2</v>
@@ -28009,13 +28550,16 @@
       <c r="T66" s="0" t="n">
         <v>1178</v>
       </c>
+      <c r="U66" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>4</v>
@@ -28071,13 +28615,16 @@
       <c r="T67" s="0" t="n">
         <v>3536</v>
       </c>
+      <c r="U67" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>4</v>
@@ -28133,13 +28680,16 @@
       <c r="T68" s="0" t="n">
         <v>248</v>
       </c>
+      <c r="U68" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>7</v>
@@ -28195,13 +28745,16 @@
       <c r="T69" s="0" t="n">
         <v>1740</v>
       </c>
+      <c r="U69" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>3</v>
@@ -28257,13 +28810,16 @@
       <c r="T70" s="0" t="n">
         <v>496</v>
       </c>
+      <c r="U70" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>6</v>
@@ -28319,13 +28875,16 @@
       <c r="T71" s="0" t="n">
         <v>2480</v>
       </c>
+      <c r="U71" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -28381,13 +28940,16 @@
       <c r="T72" s="0" t="n">
         <v>734</v>
       </c>
+      <c r="U72" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>5</v>
@@ -28443,13 +29005,16 @@
       <c r="T73" s="0" t="n">
         <v>3668</v>
       </c>
+      <c r="U73" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>5</v>
@@ -28505,13 +29070,16 @@
       <c r="T74" s="0" t="n">
         <v>422</v>
       </c>
+      <c r="U74" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>6</v>
@@ -28567,13 +29135,16 @@
       <c r="T75" s="0" t="n">
         <v>758</v>
       </c>
+      <c r="U75" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>4</v>
@@ -28629,13 +29200,16 @@
       <c r="T76" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="U76" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>5</v>
@@ -28691,13 +29265,16 @@
       <c r="T77" s="0" t="n">
         <v>1030</v>
       </c>
+      <c r="U77" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2</v>
@@ -28753,13 +29330,16 @@
       <c r="T78" s="0" t="n">
         <v>928</v>
       </c>
+      <c r="U78" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>3</v>
@@ -28815,13 +29395,16 @@
       <c r="T79" s="0" t="n">
         <v>1670</v>
       </c>
+      <c r="U79" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>5</v>
@@ -28877,13 +29460,16 @@
       <c r="T80" s="0" t="n">
         <v>194</v>
       </c>
+      <c r="U80" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>7</v>
@@ -28939,13 +29525,16 @@
       <c r="T81" s="0" t="n">
         <v>812</v>
       </c>
+      <c r="U81" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>3</v>
@@ -29001,13 +29590,16 @@
       <c r="T82" s="0" t="n">
         <v>522</v>
       </c>
+      <c r="U82" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>5</v>
@@ -29063,13 +29655,16 @@
       <c r="T83" s="0" t="n">
         <v>1450</v>
       </c>
+      <c r="U83" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2</v>
@@ -29125,13 +29720,16 @@
       <c r="T84" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="U84" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -29187,13 +29785,16 @@
       <c r="T85" s="0" t="n">
         <v>1856</v>
       </c>
+      <c r="U85" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>4</v>
@@ -29249,13 +29850,16 @@
       <c r="T86" s="0" t="n">
         <v>168</v>
       </c>
+      <c r="U86" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>7</v>
@@ -29311,13 +29915,16 @@
       <c r="T87" s="0" t="n">
         <v>1180</v>
       </c>
+      <c r="U87" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>3</v>
@@ -29373,13 +29980,16 @@
       <c r="T88" s="0" t="n">
         <v>310</v>
       </c>
+      <c r="U88" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>6</v>
@@ -29435,13 +30045,16 @@
       <c r="T89" s="0" t="n">
         <v>1546</v>
       </c>
+      <c r="U89" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2</v>
@@ -29497,13 +30110,16 @@
       <c r="T90" s="0" t="n">
         <v>398</v>
       </c>
+      <c r="U90" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>5</v>
@@ -29559,13 +30175,16 @@
       <c r="T91" s="0" t="n">
         <v>1988</v>
       </c>
+      <c r="U91" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>5</v>
@@ -29621,13 +30240,16 @@
       <c r="T92" s="0" t="n">
         <v>702</v>
       </c>
+      <c r="U92" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>6</v>
@@ -29683,13 +30305,16 @@
       <c r="T93" s="0" t="n">
         <v>1262</v>
       </c>
+      <c r="U93" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>4</v>
@@ -29745,13 +30370,16 @@
       <c r="T94" s="0" t="n">
         <v>1122</v>
       </c>
+      <c r="U94" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>5</v>
@@ -29807,13 +30435,16 @@
       <c r="T95" s="0" t="n">
         <v>1870</v>
       </c>
+      <c r="U95" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -29869,13 +30500,16 @@
       <c r="T96" s="0" t="n">
         <v>2328</v>
       </c>
+      <c r="U96" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -29931,13 +30565,16 @@
       <c r="T97" s="0" t="n">
         <v>4190</v>
       </c>
+      <c r="U97" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>5</v>
@@ -29993,13 +30630,16 @@
       <c r="T98" s="0" t="n">
         <v>314</v>
       </c>
+      <c r="U98" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>7</v>
@@ -30055,13 +30695,16 @@
       <c r="T99" s="0" t="n">
         <v>1316</v>
       </c>
+      <c r="U99" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>3</v>
@@ -30117,13 +30760,16 @@
       <c r="T100" s="0" t="n">
         <v>1026</v>
       </c>
+      <c r="U100" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>5</v>
@@ -30179,13 +30825,16 @@
       <c r="T101" s="0" t="n">
         <v>2850</v>
       </c>
+      <c r="U101" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2</v>
@@ -30241,13 +30890,16 @@
       <c r="T102" s="0" t="n">
         <v>1458</v>
       </c>
+      <c r="U102" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -30303,13 +30955,16 @@
       <c r="T103" s="0" t="n">
         <v>4376</v>
       </c>
+      <c r="U103" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -30365,13 +31020,16 @@
       <c r="T104" s="0" t="n">
         <v>288</v>
       </c>
+      <c r="U104" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>7</v>
@@ -30427,13 +31085,16 @@
       <c r="T105" s="0" t="n">
         <v>2020</v>
       </c>
+      <c r="U105" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>3</v>
@@ -30489,13 +31150,16 @@
       <c r="T106" s="0" t="n">
         <v>590</v>
       </c>
+      <c r="U106" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>6</v>
@@ -30551,13 +31215,16 @@
       <c r="T107" s="0" t="n">
         <v>2946</v>
       </c>
+      <c r="U107" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2</v>
@@ -30613,13 +31280,16 @@
       <c r="T108" s="0" t="n">
         <v>902</v>
       </c>
+      <c r="U108" s="0" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -30674,6 +31344,9 @@
       </c>
       <c r="T109" s="0" t="n">
         <v>4508</v>
+      </c>
+      <c r="U109" s="0" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -30692,10 +31365,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -30705,64 +31378,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2500</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="0" t="n">
-        <v>3772</v>
-      </c>
-      <c r="P1" s="0" t="n">
-        <v>944</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>2828</v>
-      </c>
-      <c r="R1" s="0" t="n">
-        <v>1060</v>
-      </c>
-      <c r="S1" s="0" t="n">
-        <v>662</v>
-      </c>
-      <c r="T1" s="0" t="n">
-        <v>398</v>
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30773,10 +31449,10 @@
         <v>261</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>3</v>
@@ -30785,22 +31461,22 @@
         <v>2500</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>37</v>
@@ -30809,22 +31485,25 @@
         <v>83</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1508</v>
+        <v>3772</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>566</v>
+        <v>2828</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>2652</v>
+        <v>1060</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1988</v>
+        <v>398</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30838,55 +31517,58 @@
         <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2024</v>
+        <v>1508</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1266</v>
+        <v>942</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>758</v>
+        <v>566</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2060</v>
+        <v>2652</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1546</v>
+        <v>664</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>514</v>
+        <v>1988</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30897,10 +31579,10 @@
         <v>265</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -30915,13 +31597,13 @@
         <v>34</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>36</v>
@@ -30933,84 +31615,90 @@
         <v>42</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>1688</v>
+        <v>2024</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>1266</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>422</v>
+        <v>758</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>2472</v>
+        <v>2060</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1546</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>926</v>
+        <v>514</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>2652</v>
+        <v>1688</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>664</v>
+        <v>1266</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>1988</v>
+        <v>422</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>1508</v>
+        <v>2472</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>942</v>
+        <v>1546</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>566</v>
+        <v>926</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31021,10 +31709,10 @@
         <v>297</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>3</v>
@@ -31033,22 +31721,22 @@
         <v>2500</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>118</v>
@@ -31057,22 +31745,25 @@
         <v>83</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>1060</v>
+        <v>2652</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>398</v>
+        <v>1988</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>3772</v>
+        <v>1508</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>2828</v>
+        <v>566</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31086,22 +31777,22 @@
         <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>35</v>
@@ -31113,28 +31804,31 @@
         <v>36</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>2920</v>
+        <v>1060</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>1826</v>
+        <v>662</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>1094</v>
+        <v>398</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>1688</v>
+        <v>3772</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1266</v>
+        <v>944</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>422</v>
+        <v>2828</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31145,10 +31839,10 @@
         <v>301</v>
       </c>
       <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -31163,13 +31857,13 @@
         <v>33</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>36</v>
@@ -31181,42 +31875,45 @@
         <v>42</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>2434</v>
+        <v>2920</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1826</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>608</v>
+        <v>1094</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>2024</v>
+        <v>1688</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>1266</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>758</v>
+        <v>422</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>33</v>
@@ -31225,13 +31922,13 @@
         <v>33</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>36</v>
@@ -31240,25 +31937,28 @@
         <v>37</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>4892</v>
+        <v>2434</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1224</v>
+        <v>1826</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3668</v>
+        <v>608</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1060</v>
+        <v>2024</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>662</v>
+        <v>1266</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>398</v>
+        <v>758</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31269,10 +31969,10 @@
         <v>333</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
@@ -31281,22 +31981,22 @@
         <v>2500</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>37</v>
@@ -31305,22 +32005,25 @@
         <v>83</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1956</v>
+        <v>4892</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>734</v>
+        <v>3668</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>2652</v>
+        <v>1060</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>1988</v>
+        <v>398</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31334,55 +32037,58 @@
         <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>2024</v>
+        <v>1956</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>1266</v>
+        <v>1222</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>2434</v>
+        <v>2652</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>1826</v>
+        <v>664</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>608</v>
+        <v>1988</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31393,10 +32099,10 @@
         <v>337</v>
       </c>
       <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -31411,13 +32117,13 @@
         <v>34</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>36</v>
@@ -31429,84 +32135,90 @@
         <v>42</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>1688</v>
+        <v>2024</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>1266</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>422</v>
+        <v>758</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>2920</v>
+        <v>2434</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>1826</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>1094</v>
+        <v>608</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>118</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>2652</v>
+        <v>1688</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>664</v>
+        <v>1266</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>1988</v>
+        <v>422</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>1956</v>
+        <v>2920</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1222</v>
+        <v>1826</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>734</v>
+        <v>1094</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31517,10 +32229,10 @@
         <v>369</v>
       </c>
       <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>3</v>
@@ -31529,22 +32241,22 @@
         <v>2500</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>118</v>
@@ -31553,22 +32265,25 @@
         <v>83</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>1060</v>
+        <v>2652</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>398</v>
+        <v>1988</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>4892</v>
+        <v>1956</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>3668</v>
+        <v>734</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31582,22 +32297,22 @@
         <v>5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>35</v>
@@ -31609,28 +32324,31 @@
         <v>36</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>3368</v>
+        <v>1060</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>2106</v>
+        <v>662</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>1262</v>
+        <v>398</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>1688</v>
+        <v>4892</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>1266</v>
+        <v>1224</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>422</v>
+        <v>3668</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31641,10 +32359,10 @@
         <v>373</v>
       </c>
       <c r="C16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -31659,13 +32377,13 @@
         <v>33</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>36</v>
@@ -31677,42 +32395,45 @@
         <v>42</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>2808</v>
+        <v>3368</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>2106</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>702</v>
+        <v>1262</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>2024</v>
+        <v>1688</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>1266</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>758</v>
+        <v>422</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>33</v>
@@ -31721,13 +32442,13 @@
         <v>33</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>36</v>
@@ -31736,25 +32457,28 @@
         <v>37</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>6012</v>
+        <v>2808</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>1504</v>
+        <v>2106</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>4508</v>
+        <v>702</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>1060</v>
+        <v>2024</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>662</v>
+        <v>1266</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>398</v>
+        <v>758</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31765,10 +32489,10 @@
         <v>405</v>
       </c>
       <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>3</v>
@@ -31777,22 +32501,22 @@
         <v>2500</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>37</v>
@@ -31801,22 +32525,25 @@
         <v>83</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>2404</v>
+        <v>6012</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>902</v>
+        <v>4508</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>2652</v>
+        <v>1060</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>1988</v>
+        <v>398</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31830,55 +32557,58 @@
         <v>5</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>43</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>2024</v>
+        <v>2404</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>1266</v>
+        <v>1502</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>758</v>
+        <v>902</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>2808</v>
+        <v>2652</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>2106</v>
+        <v>664</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>702</v>
+        <v>1988</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31889,10 +32619,10 @@
         <v>409</v>
       </c>
       <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
@@ -31907,13 +32637,13 @@
         <v>34</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>36</v>
@@ -31925,22 +32655,1482 @@
         <v>42</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>1688</v>
+        <v>2024</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>1266</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>422</v>
+        <v>758</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>3368</v>
+        <v>2808</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>2106</v>
       </c>
       <c r="T20" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3368</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>2106</v>
+      </c>
+      <c r="T21" s="0" t="n">
         <v>1262</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2472</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>926</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2060</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2622</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1312</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1310</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1650</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>618</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2098</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1312</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>786</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2062</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1030</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>3348</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>838</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2510</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1484</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>928</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2232</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>838</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1394</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2228</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>558</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1670</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2614</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1634</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>980</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1352</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1866</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1632</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>2166</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1354</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>812</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1667</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3066</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1916</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1392</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>870</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1667</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1840</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>2320</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>870</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1450</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3594</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>898</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>2696</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1238</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>620</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>618</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>1798</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>898</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>2474</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>618</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1856</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2922</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1462</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1460</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1182</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1670</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1462</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>2362</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1182</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1180</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>3222</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1208</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1238</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>928</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1610</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1208</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>2474</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>928</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>3772</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>2828</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1508</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>942</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>2060</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>2472</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>926</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
